--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,66 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -121,109 +121,142 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>join</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>give</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -581,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,16 +754,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -800,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9162303664921466</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8458904109589042</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8837209302325582</v>
+        <v>0.90625</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7948717948717948</v>
+        <v>0.825</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8793103448275862</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7843137254901961</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7267441860465116</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C11">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7222222222222222</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>0.8723404255319149</v>
@@ -1150,37 +1183,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7142857142857143</v>
+        <v>0.7383720930232558</v>
       </c>
       <c r="C13">
+        <v>381</v>
+      </c>
+      <c r="D13">
+        <v>381</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>135</v>
       </c>
-      <c r="D13">
-        <v>135</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>54</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.86875</v>
+        <v>0.8625</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7027027027027027</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8591549295774648</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6949152542372882</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C16">
         <v>26</v>
@@ -1318,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6375838926174496</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C17">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D17">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.82</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="L19">
         <v>52</v>
       </c>
-      <c r="K19">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L19">
-        <v>38</v>
-      </c>
       <c r="M19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5636363636363636</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -1518,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1550,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5600000000000001</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7558823529411764</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1633,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4777777777777778</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.7531380753138075</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,13 +1683,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4155844155844156</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.7457627118644068</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L23">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1733,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4087301587301587</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D24">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1718,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.7340425531914894</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1783,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1768,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.7285714285714285</v>
+        <v>0.7735294117647059</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,13 +1833,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3002680965147453</v>
+        <v>0.3163538873994638</v>
       </c>
       <c r="C26">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1818,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.7230769230769231</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1842,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,13 +1883,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1133333333333333</v>
+        <v>0.23</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1868,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.7058823529411765</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1892,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1900,37 +1933,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.025</v>
+        <v>0.03793103448275862</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.6853932584269663</v>
+        <v>0.74</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1942,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1950,89 +1983,137 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01845257364842991</v>
+        <v>0.03465025906735751</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E29">
+        <v>0.15</v>
+      </c>
+      <c r="F29">
+        <v>0.85</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2981</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.7280334728033473</v>
+      </c>
+      <c r="L29">
+        <v>174</v>
+      </c>
+      <c r="M29">
+        <v>174</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.02403393025447691</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>0.29</v>
+      </c>
+      <c r="F30">
+        <v>0.71</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2071</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L30">
+        <v>67</v>
+      </c>
+      <c r="M30">
+        <v>67</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.008670520231213872</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>114</v>
+      </c>
+      <c r="E31">
+        <v>0.76</v>
+      </c>
+      <c r="F31">
         <v>0.24</v>
       </c>
-      <c r="F29">
-        <v>0.76</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3032</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.65</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
-      </c>
-      <c r="M29">
-        <v>26</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>0.6027397260273972</v>
-      </c>
-      <c r="L30">
-        <v>44</v>
-      </c>
-      <c r="M30">
-        <v>44</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3087</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2044,15 +2125,15 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.5769230769230769</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L32">
         <v>45</v>
@@ -2070,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.484375</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2096,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.4385964912280702</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2122,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.07451923076923077</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2148,33 +2229,293 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>385</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.01537496077816128</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N36">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>3138</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37">
+        <v>0.53125</v>
+      </c>
+      <c r="L37">
+        <v>34</v>
+      </c>
+      <c r="M37">
+        <v>34</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L38">
+        <v>41</v>
+      </c>
+      <c r="M38">
+        <v>41</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>0.3457943925233645</v>
+      </c>
+      <c r="L41">
+        <v>37</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <v>0.95</v>
+      </c>
+      <c r="O41">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42">
+        <v>0.2822580645161291</v>
+      </c>
+      <c r="L42">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>30</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44">
+        <v>0.1009771986970684</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>0.96</v>
+      </c>
+      <c r="O45">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46">
+        <v>0.02741020793950851</v>
+      </c>
+      <c r="L46">
+        <v>87</v>
+      </c>
+      <c r="M46">
+        <v>114</v>
+      </c>
+      <c r="N46">
+        <v>0.76</v>
+      </c>
+      <c r="O46">
+        <v>0.24</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
